--- a/LIQ_20196_1_345.xlsx
+++ b/LIQ_20196_1_345.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>NOMBRE: 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>NOMBRE:</t>
   </si>
   <si>
     <t>AÑO: 2019</t>
@@ -25,6 +25,18 @@
     <t>QUINCENA: 1</t>
   </si>
   <si>
+    <t>Luis Enrique Oviedo</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>DIAS TRABAJADOS:</t>
   </si>
   <si>
@@ -77,9 +89,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>0</t>
@@ -144,29 +153,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="3:3">
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="3:3">
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:3">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>15000</v>
@@ -174,44 +195,44 @@
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="3:4">
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>12000</v>
@@ -219,15 +240,15 @@
     </row>
     <row r="17" spans="3:4">
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>15080</v>
@@ -235,7 +256,7 @@
     </row>
     <row r="19" spans="3:4">
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>60000</v>
@@ -243,12 +264,12 @@
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>45000</v>
@@ -256,7 +277,7 @@
     </row>
     <row r="22" spans="3:4">
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>100000</v>
@@ -264,7 +285,7 @@
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>55000</v>
@@ -272,7 +293,7 @@
     </row>
     <row r="24" spans="3:4">
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>850000</v>
@@ -280,7 +301,7 @@
     </row>
     <row r="25" spans="3:4">
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>49300</v>
@@ -288,7 +309,7 @@
     </row>
     <row r="26" spans="3:4">
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>742220</v>

--- a/LIQ_20196_1_345.xlsx
+++ b/LIQ_20196_1_345.xlsx
@@ -16,13 +16,13 @@
     <t>NOMBRE:</t>
   </si>
   <si>
-    <t>AÑO: 2019</t>
-  </si>
-  <si>
-    <t>MES: 6</t>
-  </si>
-  <si>
-    <t>QUINCENA: 1</t>
+    <t>AÑO:</t>
+  </si>
+  <si>
+    <t>MES:</t>
+  </si>
+  <si>
+    <t>QUINCENA:</t>
   </si>
   <si>
     <t>Luis Enrique Oviedo</t>

--- a/LIQ_20196_1_345.xlsx
+++ b/LIQ_20196_1_345.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="LIQQUIDACION" sheetId="1" r:id="rId1"/>
+    <sheet name="LIQUIDACION" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
